--- a/natmiOut/OldD7/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Gfra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.12131722901007</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H2">
-        <v>2.12131722901007</v>
+        <v>6.920255</v>
       </c>
       <c r="I2">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J2">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.2786966882823</v>
+        <v>0.3392376666666667</v>
       </c>
       <c r="N2">
-        <v>20.2786966882823</v>
+        <v>1.017713</v>
       </c>
       <c r="O2">
-        <v>0.8594796103581972</v>
+        <v>0.01394884456468018</v>
       </c>
       <c r="P2">
-        <v>0.8594796103581972</v>
+        <v>0.01394884456468017</v>
       </c>
       <c r="Q2">
-        <v>43.01754866672269</v>
+        <v>0.7825370529794445</v>
       </c>
       <c r="R2">
-        <v>43.01754866672269</v>
+        <v>7.042833476815001</v>
       </c>
       <c r="S2">
-        <v>0.7475276895194002</v>
+        <v>0.01202102316805908</v>
       </c>
       <c r="T2">
-        <v>0.7475276895194002</v>
+        <v>0.01202102316805907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.12131722901007</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H3">
-        <v>2.12131722901007</v>
+        <v>6.920255</v>
       </c>
       <c r="I3">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J3">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.31546010600272</v>
+        <v>20.328499</v>
       </c>
       <c r="N3">
-        <v>3.31546010600272</v>
+        <v>60.985497</v>
       </c>
       <c r="O3">
-        <v>0.1405203896418028</v>
+        <v>0.8358714277529804</v>
       </c>
       <c r="P3">
-        <v>0.1405203896418028</v>
+        <v>0.8358714277529804</v>
       </c>
       <c r="Q3">
-        <v>7.033142644959122</v>
+        <v>46.89279894908166</v>
       </c>
       <c r="R3">
-        <v>7.033142644959122</v>
+        <v>422.0351905417349</v>
       </c>
       <c r="S3">
-        <v>0.1222168402058136</v>
+        <v>0.7203485386868372</v>
       </c>
       <c r="T3">
-        <v>0.1222168402058136</v>
+        <v>0.7203485386868371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317694637704719</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H4">
-        <v>0.317694637704719</v>
+        <v>6.920255</v>
       </c>
       <c r="I4">
-        <v>0.1302554702747862</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J4">
-        <v>0.1302554702747862</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2786966882823</v>
+        <v>3.65239</v>
       </c>
       <c r="N4">
-        <v>20.2786966882823</v>
+        <v>10.95717</v>
       </c>
       <c r="O4">
-        <v>0.8594796103581972</v>
+        <v>0.1501797276823394</v>
       </c>
       <c r="P4">
-        <v>0.8594796103581972</v>
+        <v>0.1501797276823394</v>
       </c>
       <c r="Q4">
-        <v>6.44243319750773</v>
+        <v>8.425156719816666</v>
       </c>
       <c r="R4">
-        <v>6.44243319750773</v>
+        <v>75.82641047835</v>
       </c>
       <c r="S4">
-        <v>0.111951920838797</v>
+        <v>0.1294239087310095</v>
       </c>
       <c r="T4">
-        <v>0.111951920838797</v>
+        <v>0.1294239087310095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.109807</v>
+      </c>
+      <c r="I5">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J5">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3392376666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.017713</v>
+      </c>
+      <c r="O5">
+        <v>0.01394884456468018</v>
+      </c>
+      <c r="P5">
+        <v>0.01394884456468017</v>
+      </c>
+      <c r="Q5">
+        <v>0.1254961123767778</v>
+      </c>
+      <c r="R5">
+        <v>1.129465011391</v>
+      </c>
+      <c r="S5">
+        <v>0.001927821396621099</v>
+      </c>
+      <c r="T5">
+        <v>0.001927821396621098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.317694637704719</v>
-      </c>
-      <c r="H5">
-        <v>0.317694637704719</v>
-      </c>
-      <c r="I5">
-        <v>0.1302554702747862</v>
-      </c>
-      <c r="J5">
-        <v>0.1302554702747862</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.31546010600272</v>
-      </c>
-      <c r="N5">
-        <v>3.31546010600272</v>
-      </c>
-      <c r="O5">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="P5">
-        <v>0.1405203896418028</v>
-      </c>
-      <c r="Q5">
-        <v>1.053303897200983</v>
-      </c>
-      <c r="R5">
-        <v>1.053303897200983</v>
-      </c>
-      <c r="S5">
-        <v>0.01830354943598922</v>
-      </c>
-      <c r="T5">
-        <v>0.01830354943598922</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.109807</v>
+      </c>
+      <c r="I6">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J6">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.328499</v>
+      </c>
+      <c r="N6">
+        <v>60.985497</v>
+      </c>
+      <c r="O6">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="P6">
+        <v>0.8358714277529804</v>
+      </c>
+      <c r="Q6">
+        <v>7.520236829897666</v>
+      </c>
+      <c r="R6">
+        <v>67.682131469079</v>
+      </c>
+      <c r="S6">
+        <v>0.1155228890661432</v>
+      </c>
+      <c r="T6">
+        <v>0.1155228890661432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.109807</v>
+      </c>
+      <c r="I7">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J7">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.65239</v>
+      </c>
+      <c r="N7">
+        <v>10.95717</v>
+      </c>
+      <c r="O7">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="P7">
+        <v>0.1501797276823394</v>
+      </c>
+      <c r="Q7">
+        <v>1.351149329576667</v>
+      </c>
+      <c r="R7">
+        <v>12.16034396619</v>
+      </c>
+      <c r="S7">
+        <v>0.0207558189513299</v>
+      </c>
+      <c r="T7">
+        <v>0.02075581895132989</v>
       </c>
     </row>
   </sheetData>
